--- a/data_climate.xlsx
+++ b/data_climate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madalina/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31E4286-303A-A048-B005-9425FCFEB73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A3559-1718-744A-877C-C3D94C3FAF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservatism </t>
   </si>
   <si>
     <t>Income</t>
@@ -367,6 +364,9 @@
   <si>
     <t>R_10HFdGsIUXhH3ts</t>
   </si>
+  <si>
+    <t>Conservatism</t>
+  </si>
 </sst>
 </file>
 
@@ -663,7 +663,7 @@
   <dimension ref="A1:AC462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -699,16 +699,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>28.25</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>82.5</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>57.5</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>80</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <v>63.5</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>62.5</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>99.75</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6">
         <v>33.5</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>64</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>100</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>25.25</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6">
         <v>97.75</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6">
         <v>11.5</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6">
         <v>84.5</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6">
         <v>89.5</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6">
         <v>93.75</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6">
         <v>93.75</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6">
         <v>64</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6">
         <v>100</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6">
         <v>99</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6">
         <v>94.25</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6">
         <v>93.5</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6">
         <v>79.75</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6">
         <v>71.75</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6">
         <v>66.5</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6">
         <v>43.5</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6">
         <v>94.25</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6">
         <v>67.5</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6">
         <v>70</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6">
         <v>81</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6">
         <v>100</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6">
         <v>100</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="6">
         <v>75.5</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="6">
         <v>67.5</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6">
         <v>90</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="6">
         <v>26.5</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="6">
         <v>100</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6">
         <v>79.25</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="6">
         <v>100</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="6">
         <v>52.5</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="6">
         <v>80.75</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="6">
         <v>67.5</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="6">
         <v>87</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="6">
         <v>50.5</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6">
         <v>72.25</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="6">
         <v>75</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="6">
         <v>100</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="6">
         <v>100</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="6">
         <v>96.25</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="6">
         <v>90</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="6">
         <v>75.25</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="6">
         <v>33.75</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="6">
         <v>100</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="6">
         <v>93.75</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="6">
         <v>29</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="6">
         <v>28.25</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="6">
         <v>72.25</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="6">
         <v>94.5</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="6">
         <v>54.25</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="6">
         <v>2.5</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="6">
         <v>87.25</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="6">
         <v>91</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="6">
         <v>6.25</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="6">
         <v>0</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="6">
         <v>100</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="6">
         <v>49.75</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="6">
         <v>13.5</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="6">
         <v>100</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6">
         <v>62</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="6">
         <v>5.25</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="6">
         <v>72.25</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="6">
         <v>73.5</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="6">
         <v>80</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="6">
         <v>100</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="6">
         <v>91</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="6">
         <v>13.75</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>37</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="6">
         <v>100</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="6">
         <v>100</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6">
         <v>96</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6">
         <v>92.75</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="6">
         <v>100</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="6">
         <v>62.25</v>
@@ -5188,7 +5188,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="6">
         <v>1</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" s="6">
         <v>6</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="6">
         <v>73</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="6">
         <v>90.75</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="6">
         <v>80.75</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="6">
         <v>77</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="6">
         <v>50.75</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="6">
         <v>84.5</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="6">
         <v>45</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="6">
         <v>34.25</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="6">
         <v>58.5</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="6">
         <v>59.25</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" s="6">
         <v>97.25</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" s="6">
         <v>59.75</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101" s="6">
         <v>99.25</v>
